--- a/Code/Results/Cases/Case_5_196/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_196/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.002707258698423</v>
+        <v>1.041283512961459</v>
       </c>
       <c r="D2">
-        <v>1.019094831605668</v>
+        <v>1.043523996761666</v>
       </c>
       <c r="E2">
-        <v>1.008299267281788</v>
+        <v>1.039520552964207</v>
       </c>
       <c r="F2">
-        <v>0.9797059344886594</v>
+        <v>1.040050791433821</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041256288218888</v>
+        <v>1.039689566532418</v>
       </c>
       <c r="J2">
-        <v>1.024807296544726</v>
+        <v>1.046365555210747</v>
       </c>
       <c r="K2">
-        <v>1.030294403419655</v>
+        <v>1.046297620559727</v>
       </c>
       <c r="L2">
-        <v>1.019644178427193</v>
+        <v>1.042305506525004</v>
       </c>
       <c r="M2">
-        <v>0.9914554302074906</v>
+        <v>1.042834238978155</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.009562380905848</v>
+        <v>1.042611367692881</v>
       </c>
       <c r="D3">
-        <v>1.024382551188387</v>
+        <v>1.044557176498725</v>
       </c>
       <c r="E3">
-        <v>1.013984092937473</v>
+        <v>1.040663462255593</v>
       </c>
       <c r="F3">
-        <v>0.9893347499876892</v>
+        <v>1.042007747970504</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043754105469834</v>
+        <v>1.040095466089857</v>
       </c>
       <c r="J3">
-        <v>1.0297957172296</v>
+        <v>1.047337490221681</v>
       </c>
       <c r="K3">
-        <v>1.03471267572473</v>
+        <v>1.047141272094568</v>
       </c>
       <c r="L3">
-        <v>1.024441117565621</v>
+        <v>1.043257774557176</v>
       </c>
       <c r="M3">
-        <v>1.00010593839455</v>
+        <v>1.044598523683211</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C4">
-        <v>1.013862177099308</v>
+        <v>1.043469050889066</v>
       </c>
       <c r="D4">
-        <v>1.027701474996562</v>
+        <v>1.045224334847763</v>
       </c>
       <c r="E4">
-        <v>1.017555356204265</v>
+        <v>1.041401891794451</v>
       </c>
       <c r="F4">
-        <v>0.9953628348338096</v>
+        <v>1.043272232234967</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045308812668117</v>
+        <v>1.04035613510211</v>
       </c>
       <c r="J4">
-        <v>1.032917813176151</v>
+        <v>1.047964418026637</v>
       </c>
       <c r="K4">
-        <v>1.037476679549947</v>
+        <v>1.04768519380586</v>
       </c>
       <c r="L4">
-        <v>1.027446421896842</v>
+        <v>1.043872271983033</v>
       </c>
       <c r="M4">
-        <v>1.005517550439879</v>
+        <v>1.045737944252976</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.015639114999273</v>
+        <v>1.043829261698173</v>
       </c>
       <c r="D5">
-        <v>1.029073514603686</v>
+        <v>1.045504482618463</v>
       </c>
       <c r="E5">
-        <v>1.019032468076374</v>
+        <v>1.041712066810588</v>
       </c>
       <c r="F5">
-        <v>0.9978517603357265</v>
+        <v>1.043803405673267</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045948386833836</v>
+        <v>1.040465249799802</v>
       </c>
       <c r="J5">
-        <v>1.034206391343349</v>
+        <v>1.048227509637834</v>
       </c>
       <c r="K5">
-        <v>1.038617136488155</v>
+        <v>1.047913389285165</v>
       </c>
       <c r="L5">
-        <v>1.028687507972125</v>
+        <v>1.044130208137158</v>
       </c>
       <c r="M5">
-        <v>1.007750929013401</v>
+        <v>1.04621644559679</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.015935721247078</v>
+        <v>1.043889721802199</v>
       </c>
       <c r="D6">
-        <v>1.029302559839733</v>
+        <v>1.045551501692961</v>
       </c>
       <c r="E6">
-        <v>1.019279098677511</v>
+        <v>1.041764131407692</v>
       </c>
       <c r="F6">
-        <v>0.9982670931366893</v>
+        <v>1.04389256807288</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046054971203843</v>
+        <v>1.040483543110529</v>
       </c>
       <c r="J6">
-        <v>1.034421382217081</v>
+        <v>1.048271656527892</v>
       </c>
       <c r="K6">
-        <v>1.038807394386176</v>
+        <v>1.047951676915581</v>
       </c>
       <c r="L6">
-        <v>1.028894616366055</v>
+        <v>1.044173493510832</v>
       </c>
       <c r="M6">
-        <v>1.00812355715375</v>
+        <v>1.046296758488863</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.013886038928425</v>
+        <v>1.043473865446933</v>
       </c>
       <c r="D7">
-        <v>1.027719897894725</v>
+        <v>1.045228079470073</v>
       </c>
       <c r="E7">
-        <v>1.017575186939104</v>
+        <v>1.041406037386921</v>
       </c>
       <c r="F7">
-        <v>0.9953962659362581</v>
+        <v>1.043279331416089</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045317412904817</v>
+        <v>1.040357594944177</v>
       </c>
       <c r="J7">
-        <v>1.032935123617063</v>
+        <v>1.047967935305716</v>
       </c>
       <c r="K7">
-        <v>1.037492001492239</v>
+        <v>1.047688244803588</v>
       </c>
       <c r="L7">
-        <v>1.02746309154996</v>
+        <v>1.043875720099082</v>
       </c>
       <c r="M7">
-        <v>1.005547553124447</v>
+        <v>1.045744340003311</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.005053288043844</v>
+        <v>1.041732587914412</v>
       </c>
       <c r="D8">
-        <v>1.020903916594414</v>
+        <v>1.043873452621659</v>
       </c>
       <c r="E8">
-        <v>1.010243570616947</v>
+        <v>1.039907037066103</v>
       </c>
       <c r="F8">
-        <v>0.9830039595047517</v>
+        <v>1.040712535034915</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042113629233001</v>
+        <v>1.039827152543522</v>
       </c>
       <c r="J8">
-        <v>1.026515913798621</v>
+        <v>1.046694437995569</v>
       </c>
       <c r="K8">
-        <v>1.031807984412681</v>
+        <v>1.04658314845425</v>
       </c>
       <c r="L8">
-        <v>1.021286551230191</v>
+        <v>1.042627681304074</v>
       </c>
       <c r="M8">
-        <v>0.9944191833107505</v>
+        <v>1.043430948557376</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9883551389547292</v>
+        <v>1.038652241919603</v>
       </c>
       <c r="D9">
-        <v>1.008041218917445</v>
+        <v>1.041475678783609</v>
       </c>
       <c r="E9">
-        <v>0.996432225363202</v>
+        <v>1.037256896222566</v>
       </c>
       <c r="F9">
-        <v>0.9594554880554392</v>
+        <v>1.036175090221768</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035961089539457</v>
+        <v>1.038877214315632</v>
       </c>
       <c r="J9">
-        <v>1.014325916587993</v>
+        <v>1.044434991111931</v>
       </c>
       <c r="K9">
-        <v>1.021005166383354</v>
+        <v>1.044620497051296</v>
       </c>
       <c r="L9">
-        <v>1.00958345365968</v>
+        <v>1.040415379287336</v>
       </c>
       <c r="M9">
-        <v>0.9732425074986095</v>
+        <v>1.039337096938425</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9763129583568491</v>
+        <v>1.036590202625463</v>
       </c>
       <c r="D10">
-        <v>0.9987874369123926</v>
+        <v>1.039869661844941</v>
       </c>
       <c r="E10">
-        <v>0.9865116301394459</v>
+        <v>1.03548397461946</v>
       </c>
       <c r="F10">
-        <v>0.9423440473526441</v>
+        <v>1.033139512605955</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031461537390935</v>
+        <v>1.038233535140552</v>
       </c>
       <c r="J10">
-        <v>1.005498946150433</v>
+        <v>1.042918035364776</v>
       </c>
       <c r="K10">
-        <v>1.013178619127625</v>
+        <v>1.043301491309166</v>
       </c>
       <c r="L10">
-        <v>1.001128768068886</v>
+        <v>1.038931417905413</v>
       </c>
       <c r="M10">
-        <v>0.9578386380144209</v>
+        <v>1.036595362593582</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9708431403513004</v>
+        <v>1.035695214086735</v>
       </c>
       <c r="D11">
-        <v>0.9945912232299869</v>
+        <v>1.039172397650026</v>
       </c>
       <c r="E11">
-        <v>0.9820165303436567</v>
+        <v>1.034714750064465</v>
       </c>
       <c r="F11">
-        <v>0.9345280248449896</v>
+        <v>1.031822351539391</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029403572505331</v>
+        <v>1.037952318176817</v>
       </c>
       <c r="J11">
-        <v>1.001481276602268</v>
+        <v>1.042258577816107</v>
       </c>
       <c r="K11">
-        <v>1.009615867119224</v>
+        <v>1.042727780304241</v>
       </c>
       <c r="L11">
-        <v>0.997285748566075</v>
+        <v>1.038286624803854</v>
       </c>
       <c r="M11">
-        <v>0.9508001096700565</v>
+        <v>1.035405011740869</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9687690415493488</v>
+        <v>1.03536245013538</v>
       </c>
       <c r="D12">
-        <v>0.9930012865159873</v>
+        <v>1.038913119561226</v>
       </c>
       <c r="E12">
-        <v>0.9803138484373722</v>
+        <v>1.034428788770395</v>
       </c>
       <c r="F12">
-        <v>0.9315563678933965</v>
+        <v>1.031332670528145</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028621147196157</v>
+        <v>1.037847483211902</v>
       </c>
       <c r="J12">
-        <v>0.9999565948992191</v>
+        <v>1.042013228225196</v>
       </c>
       <c r="K12">
-        <v>1.008263810481463</v>
+        <v>1.042514286731846</v>
       </c>
       <c r="L12">
-        <v>0.9958281788023847</v>
+        <v>1.038046779540654</v>
       </c>
       <c r="M12">
-        <v>0.9481238197795743</v>
+        <v>1.034962371426021</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9692159304507717</v>
+        <v>1.035433843986005</v>
       </c>
       <c r="D13">
-        <v>0.9933437989593237</v>
+        <v>1.038968748491191</v>
       </c>
       <c r="E13">
-        <v>0.9806806267426742</v>
+        <v>1.034490139262548</v>
       </c>
       <c r="F13">
-        <v>0.9321970268697697</v>
+        <v>1.031437728454886</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.02878982206996</v>
+        <v>1.037869987841229</v>
       </c>
       <c r="J13">
-        <v>1.000285160331618</v>
+        <v>1.042065874642313</v>
       </c>
       <c r="K13">
-        <v>1.008555175313632</v>
+        <v>1.042560099640275</v>
       </c>
       <c r="L13">
-        <v>0.9961422432602068</v>
+        <v>1.03809824265887</v>
       </c>
       <c r="M13">
-        <v>0.9487008088757077</v>
+        <v>1.03505734175349</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9706725841122803</v>
+        <v>1.035667714398852</v>
       </c>
       <c r="D14">
-        <v>0.9944604545443623</v>
+        <v>1.039150971449581</v>
       </c>
       <c r="E14">
-        <v>0.9818764785733576</v>
+        <v>1.034691117285293</v>
       </c>
       <c r="F14">
-        <v>0.9342838297632945</v>
+        <v>1.031781883203502</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029339273999845</v>
+        <v>1.037943660223457</v>
       </c>
       <c r="J14">
-        <v>1.001355924427556</v>
+        <v>1.042238305291426</v>
       </c>
       <c r="K14">
-        <v>1.009504707319702</v>
+        <v>1.042710140881154</v>
       </c>
       <c r="L14">
-        <v>0.9971658968130306</v>
+        <v>1.038266806096487</v>
       </c>
       <c r="M14">
-        <v>0.9505801902259056</v>
+        <v>1.035368433063775</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9715643333918902</v>
+        <v>1.035811766323142</v>
       </c>
       <c r="D15">
-        <v>0.9951442262805623</v>
+        <v>1.039263207348343</v>
       </c>
       <c r="E15">
-        <v>0.9826088105670425</v>
+        <v>1.034814914886769</v>
       </c>
       <c r="F15">
-        <v>0.9355602685175223</v>
+        <v>1.03199387095742</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02967537369942</v>
+        <v>1.037989001971669</v>
       </c>
       <c r="J15">
-        <v>1.002011275776838</v>
+        <v>1.042344492619781</v>
       </c>
       <c r="K15">
-        <v>1.010085859556753</v>
+        <v>1.042802534172369</v>
       </c>
       <c r="L15">
-        <v>0.9977925256669805</v>
+        <v>1.038370618317684</v>
       </c>
       <c r="M15">
-        <v>0.9517297283959704</v>
+        <v>1.035560041143289</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9766702629913455</v>
+        <v>1.036649554884635</v>
       </c>
       <c r="D16">
-        <v>0.9990617051292743</v>
+        <v>1.039915897569308</v>
       </c>
       <c r="E16">
-        <v>0.9868055041207691</v>
+        <v>1.035534992608689</v>
       </c>
       <c r="F16">
-        <v>0.9428536038130085</v>
+        <v>1.033226869097917</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031595682105285</v>
+        <v>1.038252145671138</v>
       </c>
       <c r="J16">
-        <v>1.005761223031672</v>
+        <v>1.042961745961935</v>
       </c>
       <c r="K16">
-        <v>1.01341119384295</v>
+        <v>1.043339511968103</v>
       </c>
       <c r="L16">
-        <v>1.001379755206098</v>
+        <v>1.038974163276145</v>
       </c>
       <c r="M16">
-        <v>0.9582974664061038</v>
+        <v>1.036674294283109</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.979802048366971</v>
+        <v>1.037174506422346</v>
       </c>
       <c r="D17">
-        <v>1.00146648627786</v>
+        <v>1.040324814245112</v>
       </c>
       <c r="E17">
-        <v>0.9893825789267323</v>
+        <v>1.035986262403655</v>
       </c>
       <c r="F17">
-        <v>0.9473148314787367</v>
+        <v>1.033999551324973</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032769875819137</v>
+        <v>1.038416537485011</v>
       </c>
       <c r="J17">
-        <v>1.008059159063203</v>
+        <v>1.043348230684766</v>
       </c>
       <c r="K17">
-        <v>1.015448851443188</v>
+        <v>1.043675651464849</v>
       </c>
       <c r="L17">
-        <v>1.003579366769463</v>
+        <v>1.039352150597754</v>
       </c>
       <c r="M17">
-        <v>0.9623142994335474</v>
+        <v>1.037372378100631</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9816044143570826</v>
+        <v>1.037480498552709</v>
       </c>
       <c r="D18">
-        <v>1.002851105647058</v>
+        <v>1.040563150464379</v>
       </c>
       <c r="E18">
-        <v>0.9908667297842018</v>
+        <v>1.03624933247421</v>
       </c>
       <c r="F18">
-        <v>0.9498783088588862</v>
+        <v>1.034449981021944</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033444300441474</v>
+        <v>1.038512183469583</v>
       </c>
       <c r="J18">
-        <v>1.009380862205732</v>
+        <v>1.043573409696201</v>
       </c>
       <c r="K18">
-        <v>1.016620806106184</v>
+        <v>1.04387146806312</v>
       </c>
       <c r="L18">
-        <v>1.00484499996138</v>
+        <v>1.039572409620497</v>
       </c>
       <c r="M18">
-        <v>0.9646221809859038</v>
+        <v>1.03777925460121</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9822149556892741</v>
+        <v>1.037584799734647</v>
       </c>
       <c r="D19">
-        <v>1.003320243292305</v>
+        <v>1.04064438693444</v>
       </c>
       <c r="E19">
-        <v>0.9913696471164255</v>
+        <v>1.03633900765288</v>
       </c>
       <c r="F19">
-        <v>0.950746031122921</v>
+        <v>1.034603521870611</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03367253013452</v>
+        <v>1.038544755492169</v>
       </c>
       <c r="J19">
-        <v>1.009828449394156</v>
+        <v>1.043650147534905</v>
       </c>
       <c r="K19">
-        <v>1.01701767290942</v>
+        <v>1.043938194574525</v>
       </c>
       <c r="L19">
-        <v>1.005273679957675</v>
+        <v>1.039647476027716</v>
       </c>
       <c r="M19">
-        <v>0.9654033410363917</v>
+        <v>1.037917937894384</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9794685831212556</v>
+        <v>1.037118205170542</v>
       </c>
       <c r="D20">
-        <v>1.001210362091552</v>
+        <v>1.040280959803586</v>
       </c>
       <c r="E20">
-        <v>0.9891080703773093</v>
+        <v>1.03593786077511</v>
       </c>
       <c r="F20">
-        <v>0.9468402341671538</v>
+        <v>1.033916677145479</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032644988520949</v>
+        <v>1.03839892474661</v>
       </c>
       <c r="J20">
-        <v>1.007814560724164</v>
+        <v>1.043306790538944</v>
       </c>
       <c r="K20">
-        <v>1.015231962077217</v>
+        <v>1.043639612556753</v>
       </c>
       <c r="L20">
-        <v>1.003345183743077</v>
+        <v>1.039311618373345</v>
       </c>
       <c r="M20">
-        <v>0.9618870022133249</v>
+        <v>1.037297511873991</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9702448404082623</v>
+        <v>1.035598854437976</v>
       </c>
       <c r="D21">
-        <v>0.9941325156454294</v>
+        <v>1.039097319189624</v>
       </c>
       <c r="E21">
-        <v>0.9815252677497129</v>
+        <v>1.034631940858973</v>
       </c>
       <c r="F21">
-        <v>0.9336712727477072</v>
+        <v>1.031680550186303</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029177984638642</v>
+        <v>1.037921976014176</v>
       </c>
       <c r="J21">
-        <v>1.00104152992054</v>
+        <v>1.042187539791545</v>
       </c>
       <c r="K21">
-        <v>1.009225908534955</v>
+        <v>1.042665968332122</v>
       </c>
       <c r="L21">
-        <v>0.9968653114368095</v>
+        <v>1.03821717780776</v>
       </c>
       <c r="M21">
-        <v>0.9500285247164755</v>
+        <v>1.035276838109974</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9641979566733511</v>
+        <v>1.034641691856669</v>
       </c>
       <c r="D22">
-        <v>0.9894996998621934</v>
+        <v>1.0383514765705</v>
       </c>
       <c r="E22">
-        <v>0.9765648596078652</v>
+        <v>1.033809482690573</v>
       </c>
       <c r="F22">
-        <v>0.9249908577877923</v>
+        <v>1.030272118944647</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026893026402943</v>
+        <v>1.037619908275768</v>
       </c>
       <c r="J22">
-        <v>0.9965941254610102</v>
+        <v>1.041481518360322</v>
       </c>
       <c r="K22">
-        <v>1.005282079652579</v>
+        <v>1.042051530332815</v>
       </c>
       <c r="L22">
-        <v>0.9926153189396236</v>
+        <v>1.037527087317497</v>
       </c>
       <c r="M22">
-        <v>0.9422106217923365</v>
+        <v>1.034003511470125</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.967428484299291</v>
+        <v>1.035149283378646</v>
       </c>
       <c r="D23">
-        <v>0.991974026185517</v>
+        <v>1.038747019212882</v>
       </c>
       <c r="E23">
-        <v>0.9792138819997486</v>
+        <v>1.034245615633045</v>
       </c>
       <c r="F23">
-        <v>0.9296332719441915</v>
+        <v>1.031018996920252</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028114866068263</v>
+        <v>1.0377802487767</v>
       </c>
       <c r="J23">
-        <v>0.9989708011415602</v>
+        <v>1.041856014169128</v>
       </c>
       <c r="K23">
-        <v>1.007389631942765</v>
+        <v>1.042377472396081</v>
       </c>
       <c r="L23">
-        <v>0.994886018861564</v>
+        <v>1.037893106195083</v>
       </c>
       <c r="M23">
-        <v>0.9463918217942463</v>
+        <v>1.034678801426717</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.979619336671389</v>
+        <v>1.037143645910016</v>
       </c>
       <c r="D24">
-        <v>1.001326149153388</v>
+        <v>1.040300776287466</v>
       </c>
       <c r="E24">
-        <v>0.989232167507282</v>
+        <v>1.03595973184435</v>
       </c>
       <c r="F24">
-        <v>0.9470548032602378</v>
+        <v>1.033954125230034</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032701451934908</v>
+        <v>1.038406883929307</v>
       </c>
       <c r="J24">
-        <v>1.00792514158219</v>
+        <v>1.043325516332057</v>
       </c>
       <c r="K24">
-        <v>1.015330016082064</v>
+        <v>1.043655897753532</v>
       </c>
       <c r="L24">
-        <v>1.003451054426965</v>
+        <v>1.03932993380344</v>
       </c>
       <c r="M24">
-        <v>0.9620801873308087</v>
+        <v>1.037331341636849</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9928204482884776</v>
+        <v>1.039450048590259</v>
       </c>
       <c r="D25">
-        <v>1.011477594313189</v>
+        <v>1.042096862610072</v>
       </c>
       <c r="E25">
-        <v>1.000119304986557</v>
+        <v>1.037943084584007</v>
       </c>
       <c r="F25">
-        <v>0.9657708877337724</v>
+        <v>1.037349931550898</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037617182849027</v>
+        <v>1.03912461606679</v>
       </c>
       <c r="J25">
-        <v>1.0175918725263</v>
+        <v>1.045020967466598</v>
       </c>
       <c r="K25">
-        <v>1.023900310426603</v>
+        <v>1.045129733255931</v>
       </c>
       <c r="L25">
-        <v>1.012715769180976</v>
+        <v>1.040988893958362</v>
       </c>
       <c r="M25">
-        <v>0.978924872468098</v>
+        <v>1.040397597793817</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_196/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_196/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.041283512961459</v>
+        <v>1.002707258698424</v>
       </c>
       <c r="D2">
-        <v>1.043523996761666</v>
+        <v>1.019094831605668</v>
       </c>
       <c r="E2">
-        <v>1.039520552964207</v>
+        <v>1.008299267281788</v>
       </c>
       <c r="F2">
-        <v>1.040050791433821</v>
+        <v>0.9797059344886601</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039689566532418</v>
+        <v>1.041256288218889</v>
       </c>
       <c r="J2">
-        <v>1.046365555210747</v>
+        <v>1.024807296544727</v>
       </c>
       <c r="K2">
-        <v>1.046297620559727</v>
+        <v>1.030294403419655</v>
       </c>
       <c r="L2">
-        <v>1.042305506525004</v>
+        <v>1.019644178427193</v>
       </c>
       <c r="M2">
-        <v>1.042834238978155</v>
+        <v>0.9914554302074913</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.042611367692881</v>
+        <v>1.009562380905847</v>
       </c>
       <c r="D3">
-        <v>1.044557176498725</v>
+        <v>1.024382551188386</v>
       </c>
       <c r="E3">
-        <v>1.040663462255593</v>
+        <v>1.013984092937471</v>
       </c>
       <c r="F3">
-        <v>1.042007747970504</v>
+        <v>0.9893347499876883</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040095466089857</v>
+        <v>1.043754105469833</v>
       </c>
       <c r="J3">
-        <v>1.047337490221681</v>
+        <v>1.0297957172296</v>
       </c>
       <c r="K3">
-        <v>1.047141272094568</v>
+        <v>1.03471267572473</v>
       </c>
       <c r="L3">
-        <v>1.043257774557176</v>
+        <v>1.02444111756562</v>
       </c>
       <c r="M3">
-        <v>1.044598523683211</v>
+        <v>1.000105938394549</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.043469050889066</v>
+        <v>1.01386217709931</v>
       </c>
       <c r="D4">
-        <v>1.045224334847763</v>
+        <v>1.027701474996563</v>
       </c>
       <c r="E4">
-        <v>1.041401891794451</v>
+        <v>1.017555356204267</v>
       </c>
       <c r="F4">
-        <v>1.043272232234967</v>
+        <v>0.995362834833811</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04035613510211</v>
+        <v>1.045308812668118</v>
       </c>
       <c r="J4">
-        <v>1.047964418026637</v>
+        <v>1.032917813176152</v>
       </c>
       <c r="K4">
-        <v>1.04768519380586</v>
+        <v>1.037476679549949</v>
       </c>
       <c r="L4">
-        <v>1.043872271983033</v>
+        <v>1.027446421896844</v>
       </c>
       <c r="M4">
-        <v>1.045737944252976</v>
+        <v>1.005517550439881</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.043829261698173</v>
+        <v>1.015639114999271</v>
       </c>
       <c r="D5">
-        <v>1.045504482618463</v>
+        <v>1.029073514603684</v>
       </c>
       <c r="E5">
-        <v>1.041712066810588</v>
+        <v>1.019032468076372</v>
       </c>
       <c r="F5">
-        <v>1.043803405673267</v>
+        <v>0.9978517603357249</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040465249799802</v>
+        <v>1.045948386833835</v>
       </c>
       <c r="J5">
-        <v>1.048227509637834</v>
+        <v>1.034206391343347</v>
       </c>
       <c r="K5">
-        <v>1.047913389285165</v>
+        <v>1.038617136488153</v>
       </c>
       <c r="L5">
-        <v>1.044130208137158</v>
+        <v>1.028687507972123</v>
       </c>
       <c r="M5">
-        <v>1.04621644559679</v>
+        <v>1.007750929013399</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.043889721802199</v>
+        <v>1.015935721247077</v>
       </c>
       <c r="D6">
-        <v>1.045551501692961</v>
+        <v>1.029302559839733</v>
       </c>
       <c r="E6">
-        <v>1.041764131407692</v>
+        <v>1.01927909867751</v>
       </c>
       <c r="F6">
-        <v>1.04389256807288</v>
+        <v>0.9982670931366887</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040483543110529</v>
+        <v>1.046054971203843</v>
       </c>
       <c r="J6">
-        <v>1.048271656527892</v>
+        <v>1.03442138221708</v>
       </c>
       <c r="K6">
-        <v>1.047951676915581</v>
+        <v>1.038807394386176</v>
       </c>
       <c r="L6">
-        <v>1.044173493510832</v>
+        <v>1.028894616366055</v>
       </c>
       <c r="M6">
-        <v>1.046296758488863</v>
+        <v>1.00812355715375</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.043473865446933</v>
+        <v>1.013886038928423</v>
       </c>
       <c r="D7">
-        <v>1.045228079470073</v>
+        <v>1.027719897894723</v>
       </c>
       <c r="E7">
-        <v>1.041406037386921</v>
+        <v>1.017575186939102</v>
       </c>
       <c r="F7">
-        <v>1.043279331416089</v>
+        <v>0.9953962659362557</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040357594944177</v>
+        <v>1.045317412904816</v>
       </c>
       <c r="J7">
-        <v>1.047967935305716</v>
+        <v>1.032935123617061</v>
       </c>
       <c r="K7">
-        <v>1.047688244803588</v>
+        <v>1.037492001492237</v>
       </c>
       <c r="L7">
-        <v>1.043875720099082</v>
+        <v>1.027463091549958</v>
       </c>
       <c r="M7">
-        <v>1.045744340003311</v>
+        <v>1.005547553124445</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.041732587914412</v>
+        <v>1.005053288043845</v>
       </c>
       <c r="D8">
-        <v>1.043873452621659</v>
+        <v>1.020903916594416</v>
       </c>
       <c r="E8">
-        <v>1.039907037066103</v>
+        <v>1.010243570616948</v>
       </c>
       <c r="F8">
-        <v>1.040712535034915</v>
+        <v>0.9830039595047536</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039827152543522</v>
+        <v>1.042113629233002</v>
       </c>
       <c r="J8">
-        <v>1.046694437995569</v>
+        <v>1.026515913798622</v>
       </c>
       <c r="K8">
-        <v>1.04658314845425</v>
+        <v>1.031807984412682</v>
       </c>
       <c r="L8">
-        <v>1.042627681304074</v>
+        <v>1.021286551230193</v>
       </c>
       <c r="M8">
-        <v>1.043430948557376</v>
+        <v>0.9944191833107522</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.038652241919603</v>
+        <v>0.9883551389547299</v>
       </c>
       <c r="D9">
-        <v>1.041475678783609</v>
+        <v>1.008041218917446</v>
       </c>
       <c r="E9">
-        <v>1.037256896222566</v>
+        <v>0.9964322253632028</v>
       </c>
       <c r="F9">
-        <v>1.036175090221768</v>
+        <v>0.9594554880554402</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038877214315632</v>
+        <v>1.035961089539457</v>
       </c>
       <c r="J9">
-        <v>1.044434991111931</v>
+        <v>1.014325916587994</v>
       </c>
       <c r="K9">
-        <v>1.044620497051296</v>
+        <v>1.021005166383355</v>
       </c>
       <c r="L9">
-        <v>1.040415379287336</v>
+        <v>1.009583453659681</v>
       </c>
       <c r="M9">
-        <v>1.039337096938425</v>
+        <v>0.9732425074986109</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.036590202625463</v>
+        <v>0.9763129583568475</v>
       </c>
       <c r="D10">
-        <v>1.039869661844941</v>
+        <v>0.9987874369123915</v>
       </c>
       <c r="E10">
-        <v>1.03548397461946</v>
+        <v>0.9865116301394444</v>
       </c>
       <c r="F10">
-        <v>1.033139512605955</v>
+        <v>0.9423440473526424</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038233535140552</v>
+        <v>1.031461537390935</v>
       </c>
       <c r="J10">
-        <v>1.042918035364776</v>
+        <v>1.005498946150432</v>
       </c>
       <c r="K10">
-        <v>1.043301491309166</v>
+        <v>1.013178619127624</v>
       </c>
       <c r="L10">
-        <v>1.038931417905413</v>
+        <v>1.001128768068885</v>
       </c>
       <c r="M10">
-        <v>1.036595362593582</v>
+        <v>0.9578386380144195</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.035695214086735</v>
+        <v>0.9708431403513004</v>
       </c>
       <c r="D11">
-        <v>1.039172397650026</v>
+        <v>0.9945912232299868</v>
       </c>
       <c r="E11">
-        <v>1.034714750064465</v>
+        <v>0.9820165303436568</v>
       </c>
       <c r="F11">
-        <v>1.031822351539391</v>
+        <v>0.9345280248449896</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037952318176817</v>
+        <v>1.029403572505331</v>
       </c>
       <c r="J11">
-        <v>1.042258577816107</v>
+        <v>1.001481276602268</v>
       </c>
       <c r="K11">
-        <v>1.042727780304241</v>
+        <v>1.009615867119224</v>
       </c>
       <c r="L11">
-        <v>1.038286624803854</v>
+        <v>0.9972857485660749</v>
       </c>
       <c r="M11">
-        <v>1.035405011740869</v>
+        <v>0.9508001096700566</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.03536245013538</v>
+        <v>0.9687690415493494</v>
       </c>
       <c r="D12">
-        <v>1.038913119561226</v>
+        <v>0.9930012865159875</v>
       </c>
       <c r="E12">
-        <v>1.034428788770395</v>
+        <v>0.9803138484373725</v>
       </c>
       <c r="F12">
-        <v>1.031332670528145</v>
+        <v>0.9315563678933969</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037847483211902</v>
+        <v>1.028621147196158</v>
       </c>
       <c r="J12">
-        <v>1.042013228225196</v>
+        <v>0.9999565948992193</v>
       </c>
       <c r="K12">
-        <v>1.042514286731846</v>
+        <v>1.008263810481464</v>
       </c>
       <c r="L12">
-        <v>1.038046779540654</v>
+        <v>0.9958281788023851</v>
       </c>
       <c r="M12">
-        <v>1.034962371426021</v>
+        <v>0.9481238197795747</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.035433843986005</v>
+        <v>0.9692159304507731</v>
       </c>
       <c r="D13">
-        <v>1.038968748491191</v>
+        <v>0.993343798959325</v>
       </c>
       <c r="E13">
-        <v>1.034490139262548</v>
+        <v>0.9806806267426755</v>
       </c>
       <c r="F13">
-        <v>1.031437728454886</v>
+        <v>0.9321970268697714</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037869987841229</v>
+        <v>1.028789822069961</v>
       </c>
       <c r="J13">
-        <v>1.042065874642313</v>
+        <v>1.000285160331619</v>
       </c>
       <c r="K13">
-        <v>1.042560099640275</v>
+        <v>1.008555175313633</v>
       </c>
       <c r="L13">
-        <v>1.03809824265887</v>
+        <v>0.9961422432602079</v>
       </c>
       <c r="M13">
-        <v>1.03505734175349</v>
+        <v>0.9487008088757094</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.035667714398852</v>
+        <v>0.9706725841122814</v>
       </c>
       <c r="D14">
-        <v>1.039150971449581</v>
+        <v>0.9944604545443635</v>
       </c>
       <c r="E14">
-        <v>1.034691117285293</v>
+        <v>0.9818764785733581</v>
       </c>
       <c r="F14">
-        <v>1.031781883203502</v>
+        <v>0.9342838297632959</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037943660223457</v>
+        <v>1.029339273999846</v>
       </c>
       <c r="J14">
-        <v>1.042238305291426</v>
+        <v>1.001355924427557</v>
       </c>
       <c r="K14">
-        <v>1.042710140881154</v>
+        <v>1.009504707319703</v>
       </c>
       <c r="L14">
-        <v>1.038266806096487</v>
+        <v>0.9971658968130314</v>
       </c>
       <c r="M14">
-        <v>1.035368433063775</v>
+        <v>0.9505801902259068</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.035811766323142</v>
+        <v>0.9715643333918885</v>
       </c>
       <c r="D15">
-        <v>1.039263207348343</v>
+        <v>0.9951442262805605</v>
       </c>
       <c r="E15">
-        <v>1.034814914886769</v>
+        <v>0.9826088105670411</v>
       </c>
       <c r="F15">
-        <v>1.03199387095742</v>
+        <v>0.9355602685175203</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037989001971669</v>
+        <v>1.029675373699418</v>
       </c>
       <c r="J15">
-        <v>1.042344492619781</v>
+        <v>1.002011275776836</v>
       </c>
       <c r="K15">
-        <v>1.042802534172369</v>
+        <v>1.010085859556752</v>
       </c>
       <c r="L15">
-        <v>1.038370618317684</v>
+        <v>0.997792525666979</v>
       </c>
       <c r="M15">
-        <v>1.035560041143289</v>
+        <v>0.9517297283959684</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.036649554884635</v>
+        <v>0.9766702629913455</v>
       </c>
       <c r="D16">
-        <v>1.039915897569308</v>
+        <v>0.9990617051292741</v>
       </c>
       <c r="E16">
-        <v>1.035534992608689</v>
+        <v>0.9868055041207691</v>
       </c>
       <c r="F16">
-        <v>1.033226869097917</v>
+        <v>0.9428536038130082</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038252145671138</v>
+        <v>1.031595682105285</v>
       </c>
       <c r="J16">
-        <v>1.042961745961935</v>
+        <v>1.005761223031672</v>
       </c>
       <c r="K16">
-        <v>1.043339511968103</v>
+        <v>1.01341119384295</v>
       </c>
       <c r="L16">
-        <v>1.038974163276145</v>
+        <v>1.001379755206098</v>
       </c>
       <c r="M16">
-        <v>1.036674294283109</v>
+        <v>0.9582974664061035</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.037174506422346</v>
+        <v>0.9798020483669725</v>
       </c>
       <c r="D17">
-        <v>1.040324814245112</v>
+        <v>1.001466486277861</v>
       </c>
       <c r="E17">
-        <v>1.035986262403655</v>
+        <v>0.9893825789267336</v>
       </c>
       <c r="F17">
-        <v>1.033999551324973</v>
+        <v>0.9473148314787382</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038416537485011</v>
+        <v>1.032769875819137</v>
       </c>
       <c r="J17">
-        <v>1.043348230684766</v>
+        <v>1.008059159063204</v>
       </c>
       <c r="K17">
-        <v>1.043675651464849</v>
+        <v>1.015448851443189</v>
       </c>
       <c r="L17">
-        <v>1.039352150597754</v>
+        <v>1.003579366769465</v>
       </c>
       <c r="M17">
-        <v>1.037372378100631</v>
+        <v>0.9623142994335491</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.037480498552709</v>
+        <v>0.9816044143570792</v>
       </c>
       <c r="D18">
-        <v>1.040563150464379</v>
+        <v>1.002851105647056</v>
       </c>
       <c r="E18">
-        <v>1.03624933247421</v>
+        <v>0.9908667297841987</v>
       </c>
       <c r="F18">
-        <v>1.034449981021944</v>
+        <v>0.9498783088588824</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038512183469583</v>
+        <v>1.033444300441472</v>
       </c>
       <c r="J18">
-        <v>1.043573409696201</v>
+        <v>1.009380862205729</v>
       </c>
       <c r="K18">
-        <v>1.04387146806312</v>
+        <v>1.016620806106181</v>
       </c>
       <c r="L18">
-        <v>1.039572409620497</v>
+        <v>1.004844999961377</v>
       </c>
       <c r="M18">
-        <v>1.03777925460121</v>
+        <v>0.9646221809859</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.037584799734647</v>
+        <v>0.982214955689276</v>
       </c>
       <c r="D19">
-        <v>1.04064438693444</v>
+        <v>1.003320243292307</v>
       </c>
       <c r="E19">
-        <v>1.03633900765288</v>
+        <v>0.9913696471164269</v>
       </c>
       <c r="F19">
-        <v>1.034603521870611</v>
+        <v>0.9507460311229227</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038544755492169</v>
+        <v>1.033672530134521</v>
       </c>
       <c r="J19">
-        <v>1.043650147534905</v>
+        <v>1.009828449394157</v>
       </c>
       <c r="K19">
-        <v>1.043938194574525</v>
+        <v>1.017017672909422</v>
       </c>
       <c r="L19">
-        <v>1.039647476027716</v>
+        <v>1.005273679957677</v>
       </c>
       <c r="M19">
-        <v>1.037917937894384</v>
+        <v>0.9654033410363934</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.037118205170542</v>
+        <v>0.9794685831212554</v>
       </c>
       <c r="D20">
-        <v>1.040280959803586</v>
+        <v>1.001210362091551</v>
       </c>
       <c r="E20">
-        <v>1.03593786077511</v>
+        <v>0.989108070377309</v>
       </c>
       <c r="F20">
-        <v>1.033916677145479</v>
+        <v>0.9468402341671535</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03839892474661</v>
+        <v>1.032644988520949</v>
       </c>
       <c r="J20">
-        <v>1.043306790538944</v>
+        <v>1.007814560724164</v>
       </c>
       <c r="K20">
-        <v>1.043639612556753</v>
+        <v>1.015231962077216</v>
       </c>
       <c r="L20">
-        <v>1.039311618373345</v>
+        <v>1.003345183743076</v>
       </c>
       <c r="M20">
-        <v>1.037297511873991</v>
+        <v>0.9618870022133247</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.035598854437976</v>
+        <v>0.9702448404082605</v>
       </c>
       <c r="D21">
-        <v>1.039097319189624</v>
+        <v>0.994132515645428</v>
       </c>
       <c r="E21">
-        <v>1.034631940858973</v>
+        <v>0.9815252677497111</v>
       </c>
       <c r="F21">
-        <v>1.031680550186303</v>
+        <v>0.933671272747705</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037921976014176</v>
+        <v>1.029177984638642</v>
       </c>
       <c r="J21">
-        <v>1.042187539791545</v>
+        <v>1.001041529920538</v>
       </c>
       <c r="K21">
-        <v>1.042665968332122</v>
+        <v>1.009225908534954</v>
       </c>
       <c r="L21">
-        <v>1.03821717780776</v>
+        <v>0.9968653114368078</v>
       </c>
       <c r="M21">
-        <v>1.035276838109974</v>
+        <v>0.9500285247164734</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.034641691856669</v>
+        <v>0.964197956673353</v>
       </c>
       <c r="D22">
-        <v>1.0383514765705</v>
+        <v>0.9894996998621953</v>
       </c>
       <c r="E22">
-        <v>1.033809482690573</v>
+        <v>0.9765648596078671</v>
       </c>
       <c r="F22">
-        <v>1.030272118944647</v>
+        <v>0.9249908577877944</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037619908275768</v>
+        <v>1.026893026402945</v>
       </c>
       <c r="J22">
-        <v>1.041481518360322</v>
+        <v>0.996594125461012</v>
       </c>
       <c r="K22">
-        <v>1.042051530332815</v>
+        <v>1.00528207965258</v>
       </c>
       <c r="L22">
-        <v>1.037527087317497</v>
+        <v>0.9926153189396254</v>
       </c>
       <c r="M22">
-        <v>1.034003511470125</v>
+        <v>0.9422106217923387</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.035149283378646</v>
+        <v>0.9674284842992906</v>
       </c>
       <c r="D23">
-        <v>1.038747019212882</v>
+        <v>0.9919740261855167</v>
       </c>
       <c r="E23">
-        <v>1.034245615633045</v>
+        <v>0.9792138819997482</v>
       </c>
       <c r="F23">
-        <v>1.031018996920252</v>
+        <v>0.9296332719441908</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.0377802487767</v>
+        <v>1.028114866068263</v>
       </c>
       <c r="J23">
-        <v>1.041856014169128</v>
+        <v>0.9989708011415599</v>
       </c>
       <c r="K23">
-        <v>1.042377472396081</v>
+        <v>1.007389631942765</v>
       </c>
       <c r="L23">
-        <v>1.037893106195083</v>
+        <v>0.9948860188615636</v>
       </c>
       <c r="M23">
-        <v>1.034678801426717</v>
+        <v>0.9463918217942454</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.037143645910016</v>
+        <v>0.979619336671389</v>
       </c>
       <c r="D24">
-        <v>1.040300776287466</v>
+        <v>1.001326149153388</v>
       </c>
       <c r="E24">
-        <v>1.03595973184435</v>
+        <v>0.9892321675072818</v>
       </c>
       <c r="F24">
-        <v>1.033954125230034</v>
+        <v>0.9470548032602381</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038406883929307</v>
+        <v>1.032701451934909</v>
       </c>
       <c r="J24">
-        <v>1.043325516332057</v>
+        <v>1.00792514158219</v>
       </c>
       <c r="K24">
-        <v>1.043655897753532</v>
+        <v>1.015330016082064</v>
       </c>
       <c r="L24">
-        <v>1.03932993380344</v>
+        <v>1.003451054426965</v>
       </c>
       <c r="M24">
-        <v>1.037331341636849</v>
+        <v>0.962080187330809</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.039450048590259</v>
+        <v>0.9928204482884767</v>
       </c>
       <c r="D25">
-        <v>1.042096862610072</v>
+        <v>1.011477594313188</v>
       </c>
       <c r="E25">
-        <v>1.037943084584007</v>
+        <v>1.000119304986556</v>
       </c>
       <c r="F25">
-        <v>1.037349931550898</v>
+        <v>0.9657708877337707</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03912461606679</v>
+        <v>1.037617182849026</v>
       </c>
       <c r="J25">
-        <v>1.045020967466598</v>
+        <v>1.017591872526299</v>
       </c>
       <c r="K25">
-        <v>1.045129733255931</v>
+        <v>1.023900310426603</v>
       </c>
       <c r="L25">
-        <v>1.040988893958362</v>
+        <v>1.012715769180975</v>
       </c>
       <c r="M25">
-        <v>1.040397597793817</v>
+        <v>0.9789248724680963</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
